--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,12 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,144 +64,144 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
@@ -214,97 +211,103 @@
     <t>good</t>
   </si>
   <si>
-    <t>exactly</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>every</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>big</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>much</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,16 +764,16 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5849056603773585</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5193798449612403</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8746130030959752</v>
+        <v>0.8869969040247678</v>
       </c>
       <c r="L5">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M5">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -890,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5151515151515151</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,45 +935,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2324324324324324</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>142</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,21 +961,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L8">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,21 +987,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7322033898305085</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="L10">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="M10">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7123287671232876</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1117,16 +1096,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6875502008032128</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L14">
-        <v>856</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>857</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,24 +1140,24 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>389</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>0.6875</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1190,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.673469387755102</v>
+        <v>0.6813804173354735</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>849</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>849</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1216,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1242,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6493506493506493</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1268,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6447368421052632</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1294,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.640625</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1320,12 +1299,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
         <v>0.6323529411764706</v>
@@ -1351,16 +1330,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1372,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6274509803921569</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1398,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24">
+        <v>0.6140350877192983</v>
+      </c>
+      <c r="L24">
         <v>35</v>
       </c>
-      <c r="K24">
-        <v>0.6197183098591549</v>
-      </c>
-      <c r="L24">
-        <v>44</v>
-      </c>
       <c r="M24">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1424,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6111111111111112</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1450,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1476,47 +1455,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5918367346938775</v>
+        <v>0.6084337349397591</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5901639344262295</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1528,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5873015873015873</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1554,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5865384615384616</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L30">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1580,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5811965811965812</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L31">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1606,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5645161290322581</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1632,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5421686746987951</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1658,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.53</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L34">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1684,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.5263157894736842</v>
+        <v>0.51</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1710,47 +1689,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.5149700598802395</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="L36">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.5120481927710844</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L37">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1762,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.5037593984962406</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L38">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M38">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1788,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1814,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4362745098039216</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="L40">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M40">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1840,47 +1819,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4272727272727272</v>
+        <v>0.4319066147859922</v>
       </c>
       <c r="L41">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="M41">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>63</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4264705882352941</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1892,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.4085603112840467</v>
+        <v>0.4027397260273973</v>
       </c>
       <c r="L43">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="M43">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1918,47 +1897,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>152</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44">
+        <v>0.3985507246376812</v>
+      </c>
+      <c r="L44">
         <v>55</v>
       </c>
-      <c r="K44">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="L44">
-        <v>33</v>
-      </c>
       <c r="M44">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3972602739726027</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L45">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1970,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>440</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3928571428571428</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1996,47 +1975,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3873873873873874</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3861386138613861</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2048,47 +2027,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3741007194244604</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3732057416267943</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L50">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2100,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>131</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.3611111111111111</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2126,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.3311258278145696</v>
+        <v>0.3245033112582781</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2152,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.3308270676691729</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L53">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M53">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2178,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.3293864370290635</v>
+        <v>0.3153928955866523</v>
       </c>
       <c r="L54">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M54">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2204,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.3008849557522124</v>
+        <v>0.3034571062740077</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2227,24 +2206,24 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>79</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2944297082228117</v>
+        <v>0.3033112582781457</v>
       </c>
       <c r="L56">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M56">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2253,50 +2232,50 @@
         <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2794871794871795</v>
+        <v>0.3</v>
       </c>
       <c r="L57">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>562</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2539184952978056</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="L58">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="M58">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2308,73 +2287,73 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>238</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2527472527472527</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="L59">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>340</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.25</v>
+        <v>0.2664576802507837</v>
       </c>
       <c r="L60">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>111</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2377049180327869</v>
+        <v>0.2650273224043716</v>
       </c>
       <c r="L61">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M61">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N61">
         <v>0.95</v>
@@ -2386,47 +2365,47 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2377049180327869</v>
+        <v>0.2489451476793249</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>93</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2310924369747899</v>
+        <v>0.2346491228070176</v>
       </c>
       <c r="L63">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="M63">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2438,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>183</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.2214022140221402</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="L64">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2464,73 +2443,73 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>211</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.2200956937799043</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="L65">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="M65">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>326</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.2147239263803681</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M66">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.2115384615384615</v>
+        <v>0.2092457420924574</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="M67">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2542,47 +2521,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>123</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.2</v>
+        <v>0.2057416267942584</v>
       </c>
       <c r="L68">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="M68">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>216</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.196319018404908</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L69">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2594,177 +2573,177 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.193621867881549</v>
+        <v>0.1977272727272727</v>
       </c>
       <c r="L70">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M70">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.192090395480226</v>
+        <v>0.1933085501858736</v>
       </c>
       <c r="L71">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M71">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.19</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1878048780487805</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L73">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M73">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="N73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>333</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1718213058419244</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="L74">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M74">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>241</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1642512077294686</v>
+        <v>0.1620689655172414</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M75">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N75">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1451612903225807</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L76">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M76">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2776,99 +2755,99 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1376404494382023</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="L77">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="M77">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="N77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>921</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1373626373626374</v>
+        <v>0.147940074906367</v>
       </c>
       <c r="L78">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="M78">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="N78">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>314</v>
+        <v>910</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.120863309352518</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="L79">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M79">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>611</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K80">
+        <v>0.1215629522431259</v>
+      </c>
+      <c r="L80">
+        <v>84</v>
+      </c>
+      <c r="M80">
         <v>91</v>
-      </c>
-      <c r="K80">
-        <v>0.1205128205128205</v>
-      </c>
-      <c r="L80">
-        <v>47</v>
-      </c>
-      <c r="M80">
-        <v>51</v>
       </c>
       <c r="N80">
         <v>0.92</v>
@@ -2880,189 +2859,241 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>343</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.1148148148148148</v>
+        <v>0.1164205039096438</v>
       </c>
       <c r="L81">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="M81">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>478</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.1127622377622378</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L82">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M82">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N82">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1015</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>0.0951219512195122</v>
+        <v>0.1075794621026895</v>
       </c>
       <c r="L83">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M83">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N83">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="O83">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K84">
-        <v>0.08670520231213873</v>
+        <v>0.09851301115241635</v>
       </c>
       <c r="L84">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M84">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K85">
-        <v>0.08403361344537816</v>
+        <v>0.09020618556701031</v>
       </c>
       <c r="L85">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M85">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N85">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="O85">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>327</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K86">
-        <v>0.05843293492695883</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="L86">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M86">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N86">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="O86">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>709</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K87">
+        <v>0.08317214700193423</v>
+      </c>
+      <c r="L87">
+        <v>43</v>
+      </c>
+      <c r="M87">
+        <v>48</v>
+      </c>
+      <c r="N87">
+        <v>0.9</v>
+      </c>
+      <c r="O87">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K87">
-        <v>0.04120879120879121</v>
-      </c>
-      <c r="L87">
-        <v>30</v>
-      </c>
-      <c r="M87">
-        <v>37</v>
-      </c>
-      <c r="N87">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O87">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>698</v>
+      <c r="K88">
+        <v>0.06141522029372497</v>
+      </c>
+      <c r="L88">
+        <v>46</v>
+      </c>
+      <c r="M88">
+        <v>64</v>
+      </c>
+      <c r="N88">
+        <v>0.72</v>
+      </c>
+      <c r="O88">
+        <v>0.28</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K89">
+        <v>0.04293628808864266</v>
+      </c>
+      <c r="L89">
+        <v>31</v>
+      </c>
+      <c r="M89">
+        <v>44</v>
+      </c>
+      <c r="N89">
+        <v>0.7</v>
+      </c>
+      <c r="O89">
+        <v>0.3</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
